--- a/AlternativeData/DRG Cost Comparison.xlsx
+++ b/AlternativeData/DRG Cost Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u4859599\Documents\GitHub\FSANZ-ANU-Foodborne-Illness-Costing\AlternativeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D834736-2C23-47FB-8540-7D2D0AD5950B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F2759D-21CA-4580-8695-B96E3DBE5B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{76954D2E-85FA-482B-BF69-45539F6D9041}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{76954D2E-85FA-482B-BF69-45539F6D9041}"/>
   </bookViews>
   <sheets>
     <sheet name="OG vs Caitlin DRG values" sheetId="2" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,12 +378,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -399,6 +406,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -745,19 +762,21 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" customWidth="1"/>
     <col min="2" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="9" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="27" customWidth="1"/>
+    <col min="5" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="11.7265625" customWidth="1"/>
-    <col min="11" max="14" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="14.90625" style="27" customWidth="1"/>
+    <col min="12" max="14" width="14.90625" customWidth="1"/>
     <col min="15" max="16" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -771,7 +790,7 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E1" t="s">
@@ -792,7 +811,7 @@
       <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="27" t="s">
         <v>32</v>
       </c>
       <c r="L1" t="s">
@@ -825,49 +844,49 @@
         <f>5797*0.8276</f>
         <v>4797.5972000000002</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="30">
         <v>5731</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>4994.4960000000001</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>4797.5972000000002</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="26">
         <v>4161.3040000000001</v>
       </c>
       <c r="H2" s="1">
         <v>4220.1480000000001</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="26">
         <v>4508.2939999999999</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <f>C2/B2</f>
         <v>0.77946339561332256</v>
       </c>
-      <c r="K2" s="26">
-        <f>D2/B2</f>
+      <c r="K2" s="28">
+        <f t="shared" ref="K2:K10" si="0">D2/B2</f>
         <v>0.93111291632818849</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <f>E2/$B2</f>
         <v>0.81145345247766043</v>
       </c>
-      <c r="M2" s="26">
-        <f t="shared" ref="M2:M10" si="0">F2/$B2</f>
+      <c r="M2" s="25">
+        <f t="shared" ref="M2:M10" si="1">F2/$B2</f>
         <v>0.77946339561332256</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f>G2/B2</f>
         <v>0.67608513403736803</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f>H2/B2</f>
         <v>0.68564549147034937</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <f>I2/B2</f>
         <v>0.73246043866774979</v>
       </c>
@@ -887,50 +906,50 @@
         <f>5797*0.246</f>
         <v>1426.0619999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="30">
         <v>1636</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>1465.7760000000001</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>1426.0619999999999</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <v>1225.7280000000001</v>
       </c>
       <c r="H3" s="1">
         <v>1130.5068000000001</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>1171.3044</v>
       </c>
-      <c r="J3" s="26">
-        <f t="shared" ref="J3:J10" si="1">C3/B3</f>
+      <c r="J3" s="25">
+        <f t="shared" ref="J3:J10" si="2">C3/B3</f>
         <v>0.72721162672106066</v>
       </c>
-      <c r="K3" s="26">
-        <f>D3/B3</f>
+      <c r="K3" s="28">
+        <f t="shared" si="0"/>
         <v>0.8342682304946456</v>
       </c>
-      <c r="L3" s="26">
-        <f t="shared" ref="L3:L10" si="2">E3/$B3</f>
+      <c r="L3" s="25">
+        <f t="shared" ref="L3:L10" si="3">E3/$B3</f>
         <v>0.74746353901070883</v>
       </c>
-      <c r="M3" s="26">
-        <f t="shared" si="0"/>
+      <c r="M3" s="25">
+        <f t="shared" si="1"/>
         <v>0.72721162672106066</v>
       </c>
-      <c r="N3" s="26">
-        <f t="shared" ref="N3:N10" si="3">G3/B3</f>
+      <c r="N3" s="25">
+        <f t="shared" ref="N3:N10" si="4">G3/B3</f>
         <v>0.62505252422233559</v>
       </c>
-      <c r="O3" s="26">
-        <f t="shared" ref="O3:O10" si="4">H3/B3</f>
+      <c r="O3" s="25">
+        <f t="shared" ref="O3:O10" si="5">H3/B3</f>
         <v>0.57649505354411024</v>
       </c>
-      <c r="P3" s="26">
-        <f t="shared" ref="P3:P10" si="5">I3/B3</f>
+      <c r="P3" s="25">
+        <f t="shared" ref="P3:P10" si="6">I3/B3</f>
         <v>0.59729954105048444</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -949,50 +968,50 @@
         <f>5797*0.2699</f>
         <v>1564.6102999999998</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="30">
         <v>1641</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>1488.0944</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>1564.6102999999998</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <v>1510.8799999999999</v>
       </c>
       <c r="H4" s="1">
         <v>1573.0576000000001</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>1577.7776000000001</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
+        <f t="shared" si="2"/>
+        <v>0.24585328409805152</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25785669390320554</v>
+      </c>
+      <c r="L4" s="25">
+        <f t="shared" si="3"/>
+        <v>0.23383004399748586</v>
+      </c>
+      <c r="M4" s="25">
         <f t="shared" si="1"/>
         <v>0.24585328409805152</v>
       </c>
-      <c r="K4" s="26">
-        <f>D4/B4</f>
-        <v>0.25785669390320554</v>
-      </c>
-      <c r="L4" s="26">
-        <f t="shared" si="2"/>
-        <v>0.23383004399748586</v>
-      </c>
-      <c r="M4" s="26">
-        <f t="shared" si="0"/>
-        <v>0.24585328409805152</v>
-      </c>
-      <c r="N4" s="26">
-        <f t="shared" si="3"/>
+      <c r="N4" s="25">
+        <f t="shared" si="4"/>
         <v>0.23741043368950343</v>
       </c>
-      <c r="O4" s="26">
-        <f t="shared" si="4"/>
+      <c r="O4" s="25">
+        <f t="shared" si="5"/>
         <v>0.24718064110622251</v>
       </c>
-      <c r="P4" s="26">
-        <f t="shared" si="5"/>
+      <c r="P4" s="25">
+        <f t="shared" si="6"/>
         <v>0.24792231301068512</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1011,50 +1030,50 @@
         <f>5797*7.3957</f>
         <v>42872.872899999995</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="30">
         <v>46784</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>41125.572800000002</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>42872.872899999995</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <v>34689.591999999997</v>
       </c>
       <c r="H5" s="1">
         <v>33095.817599999995</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <v>36886.315200000005</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
+        <f t="shared" si="2"/>
+        <v>1.4821057454972861</v>
+      </c>
+      <c r="K5" s="28">
+        <f t="shared" si="0"/>
+        <v>1.617312545372835</v>
+      </c>
+      <c r="L5" s="25">
+        <f t="shared" si="3"/>
+        <v>1.4217019670204307</v>
+      </c>
+      <c r="M5" s="25">
         <f t="shared" si="1"/>
         <v>1.4821057454972861</v>
       </c>
-      <c r="K5" s="26">
-        <f>D5/B5</f>
-        <v>1.617312545372835</v>
-      </c>
-      <c r="L5" s="26">
-        <f t="shared" si="2"/>
-        <v>1.4217019670204307</v>
-      </c>
-      <c r="M5" s="26">
-        <f t="shared" si="0"/>
-        <v>1.4821057454972861</v>
-      </c>
-      <c r="N5" s="26">
-        <f t="shared" si="3"/>
+      <c r="N5" s="25">
+        <f t="shared" si="4"/>
         <v>1.1992115324783073</v>
       </c>
-      <c r="O5" s="26">
-        <f t="shared" si="4"/>
+      <c r="O5" s="25">
+        <f t="shared" si="5"/>
         <v>1.1441151035364883</v>
       </c>
-      <c r="P5" s="26">
-        <f t="shared" si="5"/>
+      <c r="P5" s="25">
+        <f t="shared" si="6"/>
         <v>1.2751517682442011</v>
       </c>
       <c r="R5" s="3"/>
@@ -1070,50 +1089,50 @@
         <f>5797*10.6081</f>
         <v>61495.155700000003</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="30">
         <v>71474</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>67644.054399999994</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>61495.155700000003</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <v>59198.831999999995</v>
       </c>
       <c r="H6" s="1">
         <v>47848.366600000001</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>51067.268000000004</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
+        <f t="shared" si="2"/>
+        <v>1.2098677048083735</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" si="0"/>
+        <v>1.4061934366884394</v>
+      </c>
+      <c r="L6" s="25">
+        <f t="shared" si="3"/>
+        <v>1.3308423388683401</v>
+      </c>
+      <c r="M6" s="25">
         <f t="shared" si="1"/>
         <v>1.2098677048083735</v>
       </c>
-      <c r="K6" s="26">
-        <f>D6/B6</f>
-        <v>1.4061934366884394</v>
-      </c>
-      <c r="L6" s="26">
-        <f t="shared" si="2"/>
-        <v>1.3308423388683401</v>
-      </c>
-      <c r="M6" s="26">
-        <f t="shared" si="0"/>
-        <v>1.2098677048083735</v>
-      </c>
-      <c r="N6" s="26">
-        <f t="shared" si="3"/>
+      <c r="N6" s="25">
+        <f t="shared" si="4"/>
         <v>1.1646893838042023</v>
       </c>
-      <c r="O6" s="26">
-        <f t="shared" si="4"/>
+      <c r="O6" s="25">
+        <f t="shared" si="5"/>
         <v>0.94137811049028097</v>
       </c>
-      <c r="P6" s="26">
-        <f t="shared" si="5"/>
+      <c r="P6" s="25">
+        <f t="shared" si="6"/>
         <v>1.0047074053671206</v>
       </c>
       <c r="Q6" s="2"/>
@@ -1130,50 +1149,50 @@
         <f xml:space="preserve"> 5797*5.3132</f>
         <v>30800.6204</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="30">
         <v>39213</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>34734.668799999999</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>30800.6204</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>31009.748</v>
       </c>
       <c r="H7" s="1">
         <v>19879.874799999998</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>20820.850400000003</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
+        <f t="shared" si="2"/>
+        <v>1.6566598752151462</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="0"/>
+        <v>2.1091329604130808</v>
+      </c>
+      <c r="L7" s="25">
+        <f t="shared" si="3"/>
+        <v>1.8682588640275386</v>
+      </c>
+      <c r="M7" s="25">
         <f t="shared" si="1"/>
         <v>1.6566598752151462</v>
       </c>
-      <c r="K7" s="26">
-        <f>D7/B7</f>
-        <v>2.1091329604130808</v>
-      </c>
-      <c r="L7" s="26">
-        <f t="shared" si="2"/>
-        <v>1.8682588640275386</v>
-      </c>
-      <c r="M7" s="26">
-        <f t="shared" si="0"/>
-        <v>1.6566598752151462</v>
-      </c>
-      <c r="N7" s="26">
-        <f t="shared" si="3"/>
+      <c r="N7" s="25">
+        <f t="shared" si="4"/>
         <v>1.6679081325301204</v>
       </c>
-      <c r="O7" s="26">
-        <f t="shared" si="4"/>
+      <c r="O7" s="25">
+        <f t="shared" si="5"/>
         <v>1.0692703743545611</v>
       </c>
-      <c r="P7" s="26">
-        <f t="shared" si="5"/>
+      <c r="P7" s="25">
+        <f t="shared" si="6"/>
         <v>1.1198822289156629</v>
       </c>
       <c r="Q7" s="2"/>
@@ -1190,50 +1209,50 @@
         <f>5797*2.2825</f>
         <v>13231.652500000002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="30">
         <v>14897</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>14300.6656</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>13231.652500000002</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>12862.164000000001</v>
       </c>
       <c r="H8" s="1">
         <v>12614.237999999999</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>12686.875599999999</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
+        <f t="shared" si="2"/>
+        <v>1.0816359437586858</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="0"/>
+        <v>1.2177716014060329</v>
+      </c>
+      <c r="L8" s="25">
+        <f t="shared" si="3"/>
+        <v>1.1690235919234857</v>
+      </c>
+      <c r="M8" s="25">
         <f t="shared" si="1"/>
         <v>1.0816359437586858</v>
       </c>
-      <c r="K8" s="26">
-        <f>D8/B8</f>
-        <v>1.2177716014060329</v>
-      </c>
-      <c r="L8" s="26">
-        <f t="shared" si="2"/>
-        <v>1.1690235919234857</v>
-      </c>
-      <c r="M8" s="26">
-        <f t="shared" si="0"/>
-        <v>1.0816359437586858</v>
-      </c>
-      <c r="N8" s="26">
-        <f t="shared" si="3"/>
+      <c r="N8" s="25">
+        <f t="shared" si="4"/>
         <v>1.0514317011362708</v>
       </c>
-      <c r="O8" s="26">
-        <f t="shared" si="4"/>
+      <c r="O8" s="25">
+        <f t="shared" si="5"/>
         <v>1.031164718384697</v>
       </c>
-      <c r="P8" s="26">
-        <f t="shared" si="5"/>
+      <c r="P8" s="25">
+        <f t="shared" si="6"/>
         <v>1.0371025586528242</v>
       </c>
       <c r="Q8" s="2"/>
@@ -1249,50 +1268,50 @@
         <f>5797*1.224</f>
         <v>7095.5280000000002</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="30">
         <v>7726</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>7140.0783999999994</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>7095.5280000000002</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>6122.7880000000005</v>
       </c>
       <c r="H9" s="1">
         <v>5640.2124000000003</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>5699.1451999999999</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
+        <f t="shared" si="2"/>
+        <v>1.3647870744373918</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="0"/>
+        <v>1.4860550105789574</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" si="3"/>
+        <v>1.3733561069436429</v>
+      </c>
+      <c r="M9" s="25">
         <f t="shared" si="1"/>
         <v>1.3647870744373918</v>
       </c>
-      <c r="K9" s="26">
-        <f>D9/B9</f>
-        <v>1.4860550105789574</v>
-      </c>
-      <c r="L9" s="26">
-        <f t="shared" si="2"/>
-        <v>1.3733561069436429</v>
-      </c>
-      <c r="M9" s="26">
-        <f t="shared" si="0"/>
-        <v>1.3647870744373918</v>
-      </c>
-      <c r="N9" s="26">
-        <f t="shared" si="3"/>
+      <c r="N9" s="25">
+        <f t="shared" si="4"/>
         <v>1.177685708790152</v>
       </c>
-      <c r="O9" s="26">
-        <f t="shared" si="4"/>
+      <c r="O9" s="25">
+        <f t="shared" si="5"/>
         <v>1.0848648586266589</v>
       </c>
-      <c r="P9" s="26">
-        <f t="shared" si="5"/>
+      <c r="P9" s="25">
+        <f t="shared" si="6"/>
         <v>1.0962002692825543</v>
       </c>
       <c r="Q9" s="2"/>
@@ -1307,50 +1326,50 @@
       <c r="C10" s="1">
         <v>6065</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="30">
         <v>7563</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>6828.8272000000006</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>5968.0115000000005</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <v>5722.7240000000002</v>
       </c>
       <c r="H10" s="1">
         <v>5714.6553999999996</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>4712.2824000000001</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="0"/>
+        <v>1.2469909315746084</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" si="3"/>
+        <v>1.1259401813685079</v>
+      </c>
+      <c r="M10" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="26">
-        <f>D10/B10</f>
-        <v>1.2469909315746084</v>
-      </c>
-      <c r="L10" s="26">
-        <f t="shared" si="2"/>
-        <v>1.1259401813685079</v>
-      </c>
-      <c r="M10" s="26">
-        <f t="shared" si="0"/>
         <v>0.98400849134377588</v>
       </c>
-      <c r="N10" s="26">
-        <f t="shared" si="3"/>
+      <c r="N10" s="25">
+        <f t="shared" si="4"/>
         <v>0.94356537510305027</v>
       </c>
-      <c r="O10" s="26">
-        <f t="shared" si="4"/>
+      <c r="O10" s="25">
+        <f t="shared" si="5"/>
         <v>0.94223502061005759</v>
       </c>
-      <c r="P10" s="26">
-        <f t="shared" si="5"/>
+      <c r="P10" s="25">
+        <f t="shared" si="6"/>
         <v>0.77696329760923333</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -1360,7 +1379,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1384,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF61E19A-8795-4265-9009-0A8E5FF90E36}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1396,170 +1415,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="5" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="7"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:20" s="27" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="32">
         <v>6465</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="33">
         <v>0.88660000000000005</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="27">
         <v>0.253</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="27">
         <v>0.25390000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="27">
         <v>7.2365000000000004</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="27">
         <v>11.0977</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="27">
         <v>6.0654000000000003</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="27">
         <v>2.3041999999999998</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="27">
         <v>1.1951000000000001</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="27">
         <v>1.1698999999999999</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="34">
         <f>C3*$B3</f>
         <v>5731.8690000000006</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="35">
         <f t="shared" ref="M3:M9" si="0">D3*$B3</f>
         <v>1635.645</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="35">
         <f t="shared" ref="N3:N9" si="1">E3*$B3</f>
         <v>1641.4635000000001</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="35">
         <f t="shared" ref="O3:O9" si="2">F3*$B3</f>
         <v>46783.972500000003</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="35">
         <f t="shared" ref="P3:P9" si="3">G3*$B3</f>
         <v>71746.630499999999</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="35">
         <f t="shared" ref="Q3:Q9" si="4">H3*$B3</f>
         <v>39212.811000000002</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="35">
         <f t="shared" ref="R3:R9" si="5">I3*$B3</f>
         <v>14896.652999999998</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="35">
         <f t="shared" ref="S3:S9" si="6">J3*$B3</f>
         <v>7726.3215</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="36">
         <f t="shared" ref="T3:T9" si="7">K3*$B3</f>
         <v>7563.4034999999994</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>6032</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.82799999999999996</v>
       </c>
       <c r="D4">
@@ -1586,51 +1605,51 @@
       <c r="K4">
         <v>1.1321000000000001</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <f t="shared" ref="L4:L9" si="8">C4*$B4</f>
         <v>4994.4960000000001</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <f t="shared" si="0"/>
         <v>1465.7760000000001</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="20">
         <f t="shared" si="1"/>
         <v>1488.0944</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="20">
         <f t="shared" si="2"/>
         <v>41125.572800000002</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="20">
         <f t="shared" si="3"/>
         <v>67644.054399999994</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="20">
         <f t="shared" si="4"/>
         <v>34734.668799999999</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="20">
         <f t="shared" si="5"/>
         <v>14300.6656</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="20">
         <f t="shared" si="6"/>
         <v>7140.0783999999994</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="21">
         <f t="shared" si="7"/>
         <v>6828.8272000000006</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>5797</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.8276</v>
       </c>
       <c r="D5">
@@ -1657,96 +1676,96 @@
       <c r="K5">
         <v>1.0295000000000001</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <f t="shared" si="8"/>
         <v>4797.5972000000002</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>1426.0619999999999</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="20">
         <f t="shared" si="1"/>
         <v>1564.6102999999998</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="20">
         <f t="shared" si="2"/>
         <v>42872.872899999995</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="20">
         <f t="shared" si="3"/>
         <v>61495.155700000003</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="20">
         <f t="shared" si="4"/>
         <v>30800.6204</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="20">
         <f t="shared" si="5"/>
         <v>13231.652500000002</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="20">
         <f t="shared" si="6"/>
         <v>7095.5280000000002</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <f t="shared" si="7"/>
         <v>5968.0115000000005</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5597</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="L6" s="20">
+      <c r="C6" s="7"/>
+      <c r="L6" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>5320</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.78220000000000001</v>
       </c>
       <c r="D7">
@@ -1773,51 +1792,51 @@
       <c r="K7">
         <v>1.0757000000000001</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <f t="shared" si="8"/>
         <v>4161.3040000000001</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <f t="shared" si="0"/>
         <v>1225.7280000000001</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <f t="shared" si="1"/>
         <v>1510.8799999999999</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <f t="shared" si="2"/>
         <v>34689.591999999997</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="20">
         <f t="shared" si="3"/>
         <v>59198.831999999995</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="20">
         <f t="shared" si="4"/>
         <v>31009.748</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <f t="shared" si="5"/>
         <v>12862.164000000001</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="20">
         <f t="shared" si="6"/>
         <v>6122.7880000000005</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="21">
         <f t="shared" si="7"/>
         <v>5722.7240000000002</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>5134</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.82199999999999995</v>
       </c>
       <c r="D8">
@@ -1844,146 +1863,146 @@
       <c r="K8">
         <v>1.1131</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <f t="shared" si="8"/>
         <v>4220.1480000000001</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <f t="shared" si="0"/>
         <v>1130.5068000000001</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <f t="shared" si="1"/>
         <v>1573.0576000000001</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <f t="shared" si="2"/>
         <v>33095.817599999995</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="20">
         <f t="shared" si="3"/>
         <v>47848.366600000001</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="20">
         <f t="shared" si="4"/>
         <v>19879.874799999998</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <f t="shared" si="5"/>
         <v>12614.237999999999</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <f t="shared" si="6"/>
         <v>5640.2124000000003</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="21">
         <f t="shared" si="7"/>
         <v>5714.6553999999996</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>5012</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.89949999999999997</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0.23369999999999999</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>0.31480000000000002</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>7.3596000000000004</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>10.189</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>4.1542000000000003</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>2.5312999999999999</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>1.1371</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>0.94020000000000004</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <f t="shared" si="8"/>
         <v>4508.2939999999999</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="23">
         <f t="shared" si="0"/>
         <v>1171.3044</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="23">
         <f t="shared" si="1"/>
         <v>1577.7776000000001</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="23">
         <f t="shared" si="2"/>
         <v>36886.315200000005</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="23">
         <f t="shared" si="3"/>
         <v>51067.268000000004</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="23">
         <f t="shared" si="4"/>
         <v>20820.850400000003</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="23">
         <f t="shared" si="5"/>
         <v>12686.875599999999</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="23">
         <f t="shared" si="6"/>
         <v>5699.1451999999999</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9" s="24">
         <f t="shared" si="7"/>
         <v>4712.2824000000001</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
